--- a/Crypto_Live_Data.xlsx
+++ b/Crypto_Live_Data.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94140</v>
+        <v>94034</v>
       </c>
       <c r="D2" t="n">
-        <v>1864207696703</v>
+        <v>1865425953182</v>
       </c>
       <c r="E2" t="n">
-        <v>89581261215</v>
+        <v>89393796787</v>
       </c>
       <c r="F2" t="n">
-        <v>1.42935</v>
+        <v>1.20956</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3081.07</v>
+        <v>3068.46</v>
       </c>
       <c r="D3" t="n">
-        <v>371153605553</v>
+        <v>370921107448</v>
       </c>
       <c r="E3" t="n">
-        <v>32000987502</v>
+        <v>32237574904</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.24283</v>
+        <v>-1.70174</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.002</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>129147553744</v>
+        <v>128953605501</v>
       </c>
       <c r="E4" t="n">
-        <v>113036172356</v>
+        <v>76668051134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21367</v>
+        <v>-0.08013000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>234.27</v>
+        <v>232.86</v>
       </c>
       <c r="D5" t="n">
-        <v>111226475282</v>
+        <v>110523209001</v>
       </c>
       <c r="E5" t="n">
-        <v>9025318374</v>
+        <v>9011562465</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.28371</v>
+        <v>-4.22278</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>608.51</v>
+        <v>607.49</v>
       </c>
       <c r="D6" t="n">
-        <v>88810514506</v>
+        <v>88646419409</v>
       </c>
       <c r="E6" t="n">
-        <v>1576813244</v>
+        <v>1494868971</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.12413</v>
+        <v>-1.49137</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.095</v>
+        <v>1.087</v>
       </c>
       <c r="D7" t="n">
-        <v>62382547918</v>
+        <v>62197836578</v>
       </c>
       <c r="E7" t="n">
-        <v>7223343844</v>
+        <v>7202080311</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.14435</v>
+        <v>-1.0373</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.377895</v>
+        <v>0.374126</v>
       </c>
       <c r="D8" t="n">
-        <v>55535333404</v>
+        <v>55253559649</v>
       </c>
       <c r="E8" t="n">
-        <v>12633455144</v>
+        <v>12538152802</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.56072</v>
+        <v>-6.83706</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.998631</v>
       </c>
       <c r="D9" t="n">
-        <v>37681249298</v>
+        <v>37601657634</v>
       </c>
       <c r="E9" t="n">
-        <v>8765287332</v>
+        <v>9315292583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17006</v>
+        <v>-0.17207</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3081.09</v>
+        <v>3066.63</v>
       </c>
       <c r="D10" t="n">
-        <v>30144787617</v>
+        <v>29999745798</v>
       </c>
       <c r="E10" t="n">
-        <v>94160899</v>
+        <v>94799179</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.30297</v>
+        <v>-1.66446</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.821497</v>
+        <v>0.8191659999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>29410330039</v>
+        <v>29288005835</v>
       </c>
       <c r="E11" t="n">
-        <v>4146563339</v>
+        <v>1687114779</v>
       </c>
       <c r="F11" t="n">
-        <v>12.13281</v>
+        <v>11.93991</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.196433</v>
+        <v>0.195822</v>
       </c>
       <c r="D12" t="n">
-        <v>16973012137</v>
+        <v>16920106293</v>
       </c>
       <c r="E12" t="n">
-        <v>853831486</v>
+        <v>868768873</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.01055</v>
+        <v>-3.54317</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.395e-05</v>
+        <v>2.38e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>14115017456</v>
+        <v>14029132275</v>
       </c>
       <c r="E13" t="n">
-        <v>1766726640</v>
+        <v>1746551662</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.97125</v>
+        <v>-6.42628</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33.98</v>
+        <v>33.68</v>
       </c>
       <c r="D14" t="n">
-        <v>13899769685</v>
+        <v>13776538009</v>
       </c>
       <c r="E14" t="n">
-        <v>731638664</v>
+        <v>762101008</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.6463</v>
+        <v>-2.28628</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93924</v>
+        <v>93730</v>
       </c>
       <c r="D15" t="n">
-        <v>13743441286</v>
+        <v>13701119251</v>
       </c>
       <c r="E15" t="n">
-        <v>698381216</v>
+        <v>668377791</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5179</v>
+        <v>1.19925</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="D16" t="n">
-        <v>13423954123</v>
+        <v>13410841907</v>
       </c>
       <c r="E16" t="n">
-        <v>378575072</v>
+        <v>400896346</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.24913</v>
+        <v>-4.65717</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3654.84</v>
+        <v>3652.39</v>
       </c>
       <c r="D17" t="n">
-        <v>13255945537</v>
+        <v>13246526536</v>
       </c>
       <c r="E17" t="n">
-        <v>68882778</v>
+        <v>69544922</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.97551</v>
+        <v>-1.02353</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="D18" t="n">
-        <v>10380336165</v>
+        <v>10227590481</v>
       </c>
       <c r="E18" t="n">
-        <v>1991876236</v>
+        <v>2054349133</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.64</v>
+        <v>-5.21864</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.53</v>
+        <v>14.41</v>
       </c>
       <c r="D19" t="n">
-        <v>9115977182</v>
+        <v>9046711163</v>
       </c>
       <c r="E19" t="n">
-        <v>1007873724</v>
+        <v>1006383528</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.42511</v>
+        <v>-2.00062</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3078.67</v>
+        <v>3069.51</v>
       </c>
       <c r="D20" t="n">
-        <v>9044618919</v>
+        <v>9033506030</v>
       </c>
       <c r="E20" t="n">
-        <v>1231144058</v>
+        <v>1430545349</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.12917</v>
+        <v>-1.63131</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>441.27</v>
+        <v>437.49</v>
       </c>
       <c r="D21" t="n">
-        <v>8736808705</v>
+        <v>8666639249</v>
       </c>
       <c r="E21" t="n">
-        <v>422894111</v>
+        <v>420816219</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.73957</v>
+        <v>-2.46477</v>
       </c>
     </row>
     <row r="22">
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.75</v>
+        <v>5.68</v>
       </c>
       <c r="D22" t="n">
-        <v>8277434532</v>
+        <v>8177841287</v>
       </c>
       <c r="E22" t="n">
-        <v>669501138</v>
+        <v>666701284</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.30716</v>
+        <v>-2.11074</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.908e-05</v>
+        <v>1.887e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>8025132884</v>
+        <v>7985227216</v>
       </c>
       <c r="E23" t="n">
-        <v>5483564100</v>
+        <v>5462690085</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.75034</v>
+        <v>-8.000719999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.470000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D24" t="n">
-        <v>7831544302</v>
+        <v>7787393455</v>
       </c>
       <c r="E24" t="n">
-        <v>4269755</v>
+        <v>4217218</v>
       </c>
       <c r="F24" t="n">
-        <v>7.26326</v>
+        <v>6.54915</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.246384</v>
+        <v>0.245357</v>
       </c>
       <c r="D25" t="n">
-        <v>7418323965</v>
+        <v>7372026149</v>
       </c>
       <c r="E25" t="n">
-        <v>1624408547</v>
+        <v>1624883612</v>
       </c>
       <c r="F25" t="n">
-        <v>5.96812</v>
+        <v>6.951</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.55</v>
+        <v>5.47</v>
       </c>
       <c r="D26" t="n">
-        <v>6758073662</v>
+        <v>6671956089</v>
       </c>
       <c r="E26" t="n">
-        <v>700953694</v>
+        <v>701093147</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.6655</v>
+        <v>-5.78791</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>84.72</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>6373142115</v>
+        <v>6333198239</v>
       </c>
       <c r="E27" t="n">
-        <v>951780009</v>
+        <v>951260498</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.57831</v>
+        <v>-3.47505</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.91</v>
+        <v>11.79</v>
       </c>
       <c r="D28" t="n">
-        <v>6352379612</v>
+        <v>6324835128</v>
       </c>
       <c r="E28" t="n">
-        <v>1243284047</v>
+        <v>1238380970</v>
       </c>
       <c r="F28" t="n">
-        <v>1.16691</v>
+        <v>0.12444</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3239.95</v>
+        <v>3234.1</v>
       </c>
       <c r="D29" t="n">
-        <v>5552914521</v>
+        <v>5563597830</v>
       </c>
       <c r="E29" t="n">
-        <v>11031712</v>
+        <v>11144410</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.33252</v>
+        <v>-1.53366</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.003</v>
+        <v>0.991748</v>
       </c>
       <c r="D30" t="n">
-        <v>5309639824</v>
+        <v>5248066792</v>
       </c>
       <c r="E30" t="n">
-        <v>5147704</v>
+        <v>5022900</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32269</v>
+        <v>-0.79471</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1173,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.82</v>
+        <v>8.73</v>
       </c>
       <c r="D31" t="n">
-        <v>5298894983</v>
+        <v>5241619615</v>
       </c>
       <c r="E31" t="n">
-        <v>421396234</v>
+        <v>420189552</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.63178</v>
+        <v>-7.73897</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.17743</v>
+        <v>0.174871</v>
       </c>
       <c r="D32" t="n">
-        <v>4822889135</v>
+        <v>4746670334</v>
       </c>
       <c r="E32" t="n">
-        <v>187318538</v>
+        <v>185465072</v>
       </c>
       <c r="F32" t="n">
-        <v>5.11905</v>
+        <v>3.82935</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.122448</v>
+        <v>0.120907</v>
       </c>
       <c r="D33" t="n">
-        <v>4629156945</v>
+        <v>4565354724</v>
       </c>
       <c r="E33" t="n">
-        <v>1005363457</v>
+        <v>991944227</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.40383</v>
+        <v>-11.50175</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.17</v>
+        <v>9.02</v>
       </c>
       <c r="D34" t="n">
-        <v>4355804272</v>
+        <v>4281499669</v>
       </c>
       <c r="E34" t="n">
-        <v>212364079</v>
+        <v>213586348</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.29649</v>
+        <v>-2.53755</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.74</v>
+        <v>7.63</v>
       </c>
       <c r="D35" t="n">
-        <v>4006887168</v>
+        <v>3956788122</v>
       </c>
       <c r="E35" t="n">
-        <v>449676743</v>
+        <v>447452761</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.99583</v>
+        <v>-4.79618</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.15759</v>
+        <v>0.154224</v>
       </c>
       <c r="D36" t="n">
-        <v>3973437081</v>
+        <v>3934662311</v>
       </c>
       <c r="E36" t="n">
-        <v>153761522</v>
+        <v>153733171</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.0893</v>
+        <v>-6.00906</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25.63</v>
+        <v>25.39</v>
       </c>
       <c r="D37" t="n">
-        <v>3839367459</v>
+        <v>3823609422</v>
       </c>
       <c r="E37" t="n">
-        <v>334824467</v>
+        <v>335459150</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.43226</v>
+        <v>-3.32412</v>
       </c>
     </row>
     <row r="38">
@@ -1341,64 +1341,64 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.081e-05</v>
+        <v>5.024e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>3816268319</v>
+        <v>3792836609</v>
       </c>
       <c r="E38" t="n">
-        <v>3272868228</v>
+        <v>3255339914</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.76255</v>
+        <v>-7.38976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POL (ex-MATIC)</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>usde</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.444268</v>
+        <v>0.999956</v>
       </c>
       <c r="D39" t="n">
-        <v>3545232510</v>
+        <v>3539641732</v>
       </c>
       <c r="E39" t="n">
-        <v>403916530</v>
+        <v>270683909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.98326</v>
+        <v>-0.18259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>POL (ex-MATIC)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>usde</t>
+          <t>pol</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.002</v>
+        <v>0.438092</v>
       </c>
       <c r="D40" t="n">
-        <v>3531056442</v>
+        <v>3513536635</v>
       </c>
       <c r="E40" t="n">
-        <v>267750900</v>
+        <v>404226969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.18369</v>
+        <v>-0.12704</v>
       </c>
     </row>
     <row r="41">
@@ -1413,64 +1413,64 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23.91</v>
+        <v>23.9</v>
       </c>
       <c r="D41" t="n">
-        <v>3446602210</v>
+        <v>3451698194</v>
       </c>
       <c r="E41" t="n">
-        <v>33423655</v>
+        <v>33326527</v>
       </c>
       <c r="F41" t="n">
-        <v>4.02162</v>
+        <v>3.89351</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>tao</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>465.44</v>
       </c>
       <c r="D42" t="n">
-        <v>3444495054</v>
+        <v>3439384285</v>
       </c>
       <c r="E42" t="n">
-        <v>177666557</v>
+        <v>238413503</v>
       </c>
       <c r="F42" t="n">
-        <v>0.28887</v>
+        <v>-4.1372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tao</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>466.06</v>
+        <v>0.998028</v>
       </c>
       <c r="D43" t="n">
-        <v>3439949584</v>
+        <v>3434723535</v>
       </c>
       <c r="E43" t="n">
-        <v>241199835</v>
+        <v>130954593</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.00713</v>
+        <v>-0.20297</v>
       </c>
     </row>
     <row r="44">
@@ -1485,16 +1485,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D44" t="n">
-        <v>3346909617</v>
+        <v>3345089602</v>
       </c>
       <c r="E44" t="n">
-        <v>315283697</v>
+        <v>310287057</v>
       </c>
       <c r="F44" t="n">
-        <v>-12.09961</v>
+        <v>-11.51311</v>
       </c>
     </row>
     <row r="45">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="D45" t="n">
-        <v>3298305043</v>
+        <v>3264273732</v>
       </c>
       <c r="E45" t="n">
-        <v>392050675</v>
+        <v>392525427</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.74445</v>
+        <v>-5.07533</v>
       </c>
     </row>
     <row r="46">
@@ -1533,16 +1533,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.11</v>
+        <v>3.08</v>
       </c>
       <c r="D46" t="n">
-        <v>3108052130</v>
+        <v>3090257441</v>
       </c>
       <c r="E46" t="n">
-        <v>1033487219</v>
+        <v>1024678326</v>
       </c>
       <c r="F46" t="n">
-        <v>-11.37574</v>
+        <v>-12.04709</v>
       </c>
     </row>
     <row r="47">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>160.26</v>
+        <v>160.76</v>
       </c>
       <c r="D47" t="n">
-        <v>2956934114</v>
+        <v>2974490423</v>
       </c>
       <c r="E47" t="n">
-        <v>98930683</v>
+        <v>98313769</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.46706</v>
+        <v>-0.19719</v>
       </c>
     </row>
     <row r="48">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="D48" t="n">
-        <v>2786330858</v>
+        <v>2750881165</v>
       </c>
       <c r="E48" t="n">
-        <v>221625608</v>
+        <v>219302590</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.79482</v>
+        <v>-5.38169</v>
       </c>
     </row>
     <row r="49">
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.676409</v>
+        <v>0.668865</v>
       </c>
       <c r="D49" t="n">
-        <v>2771175946</v>
+        <v>2740713307</v>
       </c>
       <c r="E49" t="n">
-        <v>615586688</v>
+        <v>616519004</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.79278</v>
+        <v>-3.50126</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>43.74</v>
+        <v>43.79</v>
       </c>
       <c r="D50" t="n">
-        <v>2625346363</v>
+        <v>2623196618</v>
       </c>
       <c r="E50" t="n">
-        <v>6244534</v>
+        <v>6217002</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.96394</v>
+        <v>-0.78387</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.03190504</v>
+        <v>0.03153254</v>
       </c>
       <c r="D51" t="n">
-        <v>2583296265</v>
+        <v>2558251246</v>
       </c>
       <c r="E51" t="n">
-        <v>108797360</v>
+        <v>107187590</v>
       </c>
       <c r="F51" t="n">
-        <v>-5.61445</v>
+        <v>-6.28879</v>
       </c>
     </row>
   </sheetData>
